--- a/File/CustomerServiceSheet.xlsx
+++ b/File/CustomerServiceSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ĐẠI HỌC\NAM4\RPA\RPA_Final2\sendmail\File\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77FCF0F9-A6E1-47D2-AD73-0C3B663DB4D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37BBB4B5-FB2E-41A9-A05C-E7D9ED9F2AF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>ID</t>
   </si>
@@ -49,39 +49,35 @@
     <t>Status</t>
   </si>
   <si>
+    <t>1</t>
+  </si>
+  <si>
     <t>Lanh</t>
   </si>
   <si>
     <t xml:space="preserve">anhhl21411@st.uel.edu.vn </t>
   </si>
   <si>
+    <t>2</t>
+  </si>
+  <si>
     <t>MB</t>
   </si>
   <si>
-    <t>Tdung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dungttt21411@st.uel.edu.vn </t>
-  </si>
-  <si>
     <t>binhntm21411@st.uel.edu.vn</t>
+  </si>
+  <si>
+    <t>Done</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -103,16 +99,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -413,14 +406,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="I4:J11"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="4" width="9.109375" customWidth="1"/>
     <col min="5" max="5" width="25.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -454,36 +448,28 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
+      <c r="A2" t="s">
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="1" t="s">
         <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
+      <c r="A3" t="s">
+        <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
